--- a/Car_UML/Car_UML.xlsx
+++ b/Car_UML/Car_UML.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sincerus\Class3Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sincerus\Git\GitHub\sangbong3\Car_UML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>Car</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,22 +62,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vehicle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+getStatus()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+getTotalKM()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+getDriver()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Member</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,19 +318,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+rent(…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+reserve(…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+cancel(…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+return(…)</t>
+    <t>Vehicle &lt;&lt;interface&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-status : VehicleStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+getTotalKm()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,15 +351,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -422,13 +412,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,6 +451,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -878,7 +890,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -900,19 +912,19 @@
         <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -920,19 +932,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -940,19 +952,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -960,19 +972,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -980,19 +992,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1000,16 +1012,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1017,305 +1029,303 @@
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
+      <c r="E8" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E12" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E13" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="E13" s="5"/>
       <c r="G13" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>57</v>
+      <c r="E14" s="5"/>
+      <c r="G14" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E15" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="E15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E16" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="E16" s="6"/>
       <c r="G16" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G17" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G18" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G19" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G20" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G21" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G22" s="6" t="s">
-        <v>65</v>
+      <c r="G22" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Car_UML/Car_UML.xlsx
+++ b/Car_UML/Car_UML.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
   <si>
     <t>Car</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,98 @@
   </si>
   <si>
     <t>+getTotalKm()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+addVehicle(Vehicle)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+removeVehicle(Long)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+updateVehicle(Vehicle)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+findVehicleById(Long)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+getAllVehicle()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+findVehicleForStatus(VehicleStatus)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-vehicles : ArrayList&lt;Vehicle&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VehicleServiceImpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VehicleService &lt;&lt;interface&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+setId(Long)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+setCompany(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+setModel(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+setFactoryNumber(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+setRegistNumber(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+setColor(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+setMakeYear(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+setTotalKm(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+setType(VehicleType)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+setStatus(VehicleStatus)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VehicleRepository &lt;&lt;interface&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VehicleJSONRepository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+save(List&lt;Vehicle&gt;)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+load(List&lt;Vehicle&gt;)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,18 +443,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -456,10 +542,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,6 +648,112 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="5391150" y="247650"/>
           <a:ext cx="866775" cy="2428876"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="직선 화살표 연결선 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B19E9D-E5F5-4912-B7C4-4D9B2C5A391A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10010776" y="5476875"/>
+          <a:ext cx="9524" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE26FFA-A64F-4C74-9ADA-54324DC22A8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10001251" y="3343275"/>
+          <a:ext cx="9524" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -889,9 +1081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1067,6 +1257,9 @@
       <c r="G10" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="J10" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E11" s="5" t="s">
@@ -1075,167 +1268,258 @@
       <c r="G11" s="9" t="s">
         <v>74</v>
       </c>
+      <c r="J11" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="G14" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="G15" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E16" s="6"/>
+      <c r="E16" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="G16" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J16" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E17" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="G17" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E18" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="G18" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J18" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E19" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="G19" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E20" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="G20" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E21" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G21" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G22" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G23" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J23" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J24" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J25" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J26" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J27" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J28" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J29" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J33" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J34" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J35" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J36" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J37" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J38" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J39" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J40" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>20</v>
       </c>
@@ -1243,7 +1527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>27</v>
       </c>
@@ -1251,7 +1535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>28</v>
       </c>
@@ -1259,7 +1543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>29</v>
       </c>
@@ -1267,12 +1551,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>30</v>
       </c>

--- a/Car_UML/Car_UML.xlsx
+++ b/Car_UML/Car_UML.xlsx
@@ -1081,7 +1081,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1124,7 +1126,7 @@
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -1356,7 +1358,7 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G21" s="5" t="s">

--- a/Car_UML/Car_UML.xlsx
+++ b/Car_UML/Car_UML.xlsx
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+getStatus()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Member</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,18 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+getType()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+getMakeYear()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+getModel()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VehicleStatus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+getFactoryNumber()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-vehicle : Vehicle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,38 +166,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+returnVehicle(Vehicle, Member, endDate, endPoint, returnDate)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-returnDate : Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+cancelVehicle(Vehicle, Member, cancelDate)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-cancelDate : Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+reserveVehicle(Vehicle, Member, startDate, startPoint, endDate, endPoint, money, reserveDate, untilDate, status)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+reserveVehicle(Vehicle, Member, startDate, startPoint, endDate, endPoint, money, reserveDate)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-reserved : Reserved</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+rentVehicle(Vehicle, Member, startDate, startPoint, money, rentDate, status)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-rentDate : Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+brokenVehicle(Vehicle, Member, brokenDate)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-brokenDate : Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,22 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+getId()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+getCompany()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+getColor()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+getRegistNumber()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Vehicle &lt;&lt;interface&gt;&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,34 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+getTotalKm()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+addVehicle(Vehicle)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+removeVehicle(Long)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+updateVehicle(Vehicle)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+findVehicleById(Long)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+getAllVehicle()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+findVehicleForStatus(VehicleStatus)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-vehicles : ArrayList&lt;Vehicle&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,11 +326,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+save(List&lt;Vehicle&gt;)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+load(List&lt;Vehicle&gt;)</t>
+    <t>+getId() : Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+getCompany() : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+getModel() : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+getMakeYear() : int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+getType() : VehicleType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+getColor() : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+getTotalKm() : int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+getFactoryNumber() : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+getRegistNumber() : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+getStatus() : VehicleStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+save(List&lt;Vehicle&gt;) : boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+load(List&lt;Vehicle&gt;) : boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+addVehicle(Vehicle) : Vehicle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+removeVehicle(Long) : boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+updateVehicle(Vehicle) : Vehicle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+findVehicleById(Long) : Vehicle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+getAllVehicle() : List&lt;Vehicle&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+findVehicleForStatus(VehicleStatus) : List&lt;Vehicle&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+reserveVehicle(Vehicle, Member, startDate, startPoint, endDate, endPoint, money, reserveDate, untilDate, status) : boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+reserveVehicle(Vehicle, Member, startDate, startPoint, endDate, endPoint, money, reserveDate) : boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+cancelVehicle(Vehicle, Member, cancelDate) : boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+rentVehicle(Vehicle, Member, startDate, startPoint, money, rentDate, status) : boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+returnVehicle(Vehicle, Member, endDate, endPoint, returnDate) : boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+brokenVehicle(Vehicle, Member, brokenDate) : boolean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1104,19 +1104,19 @@
         <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1124,19 +1124,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1144,19 +1144,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1164,19 +1164,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1184,19 +1184,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1204,16 +1204,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1221,13 +1221,13 @@
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1235,383 +1235,383 @@
         <v>7</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E11" s="5" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E12" s="5" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E13" s="5" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E14" s="5" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E15" s="5" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E16" s="5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E17" s="5" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E18" s="8" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E19" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E20" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E21" s="6" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G22" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G23" s="9" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>76</v>
+        <v>36</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E37" s="1"/>
       <c r="J37" s="5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="E38" s="1"/>
       <c r="J38" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J40" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Car_UML/Car_UML.xlsx
+++ b/Car_UML/Car_UML.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
-  <si>
-    <t>Car</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
   <si>
     <t>Sedan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VehicleType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Member</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VehicleStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rented</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vehicle &lt;&lt;interface&gt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-status : VehicleStatus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,6 +403,58 @@
   </si>
   <si>
     <t>+brokenVehicle(Vehicle, Member, brokenDate) : boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VehicleStatus : Enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VehicleType : Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car : Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MotorCycle : Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVehicle &lt;&lt;interface&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECategory 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICategory 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryDto 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryEntity 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICategoryService 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryServiceImple 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryController 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryJpaRepository 참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1081,9 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1101,517 +1135,541 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E11" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E12" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="J12" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
       <c r="E13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="J17" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="J18" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E19" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E20" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E21" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G22" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G23" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E37" s="1"/>
       <c r="J37" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E38" s="1"/>
       <c r="J38" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J40" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Car_UML/Car_UML.xlsx
+++ b/Car_UML/Car_UML.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
   <si>
     <t>Sedan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,14 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Car : Entity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MotorCycle : Entity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IVehicle &lt;&lt;interface&gt;&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,6 +447,14 @@
   </si>
   <si>
     <t>CategoryJpaRepository 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vehicle : Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryRequest 참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,59 +631,6 @@
         <a:xfrm flipH="1">
           <a:off x="5362576" y="123825"/>
           <a:ext cx="900000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF431E4-0327-4900-937F-9582EC7F2AE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5391150" y="247650"/>
-          <a:ext cx="866775" cy="2428876"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1117,7 +1064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1141,10 +1090,10 @@
         <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>8</v>
@@ -1277,7 +1226,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>18</v>
@@ -1313,7 +1262,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>59</v>
@@ -1324,46 +1273,43 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>40</v>
+      <c r="G14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>41</v>
+      <c r="G15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>42</v>
+      <c r="G16" t="s">
+        <v>101</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>70</v>
@@ -1371,13 +1317,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>43</v>
+      <c r="G17" t="s">
+        <v>107</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>81</v>
@@ -1385,13 +1331,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>44</v>
+      <c r="G18" t="s">
+        <v>102</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>82</v>
@@ -1401,8 +1347,8 @@
       <c r="E19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>45</v>
+      <c r="G19" t="s">
+        <v>103</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -1410,8 +1356,8 @@
       <c r="E20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>46</v>
+      <c r="G20" t="s">
+        <v>105</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -1419,21 +1365,15 @@
       <c r="E21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>47</v>
+      <c r="G21" t="s">
+        <v>104</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G22" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G23" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="J23" s="4" t="s">
         <v>58</v>
       </c>

--- a/Car_UML/Car_UML.xlsx
+++ b/Car_UML/Car_UML.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>Sedan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,7 +454,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CategoryRequest 참고</t>
+    <t>IPhoneBook 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneBookDto 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneBookEntity 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneBookRequest 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPhoneBookService 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneBookServiceImple 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneBookJpaRepository 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneBookController 참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,7 +1093,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1287,7 +1315,7 @@
         <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1298,7 +1326,7 @@
         <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1309,7 +1337,7 @@
         <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>70</v>
@@ -1323,7 +1351,7 @@
         <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>81</v>
@@ -1337,7 +1365,7 @@
         <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>82</v>
@@ -1348,7 +1376,7 @@
         <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -1357,7 +1385,7 @@
         <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -1366,7 +1394,7 @@
         <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J21" s="1"/>
     </row>
